--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>955778.9042225339</v>
+        <v>953343.2672988274</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>64.43856447801397</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>39.32117841962486</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.86209348694648</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,16 +874,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>262.4033500842938</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>299.5215209693887</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3434512871704715</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,13 +1057,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>118.270840872859</v>
       </c>
       <c r="F7" t="n">
-        <v>97.27989568773721</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>387.4110857322199</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.92365879439235</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,19 +1294,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>69.60662835550703</v>
       </c>
       <c r="H10" t="n">
-        <v>25.67117937440968</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>28.11749662299892</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238013</v>
+        <v>22.60777203238038</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114094</v>
+        <v>97.97552699114108</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>224.7946186474753</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458123</v>
+        <v>87.05432226458126</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035167</v>
+        <v>9.75316679403528</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>116.2637305539245</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>136.6856111842595</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146332</v>
+        <v>79.00824149146345</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2715658672547</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119342</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>98.20443080310514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634796</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833787</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>51.36569740310359</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986298</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699826</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.44478684180392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503957</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>146.464959821705</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417099</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>153.589961858651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784687</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.95497330698053</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272892</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.17049831699801</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.799772605713355</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819339</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419834054</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>151.0612007923064</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560543</v>
       </c>
     </row>
     <row r="42">
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763394</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>53.30076123484727</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
         <v>66.51211643218342</v>
@@ -4328,7 +4328,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4340,13 +4340,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3119.628073993393</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>3079.909711953368</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2689.770379977556</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,10 +4507,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4522,16 +4522,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.908724368016</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="X4" t="n">
-        <v>1134.908724368016</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y4" t="n">
-        <v>1134.908724368016</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.766690866869</v>
+        <v>1892.96366001348</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.766690866869</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.500992260119</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520485</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520485</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>3009.337405520485</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2656.568750250371</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2283.102991989291</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.366530930991</v>
+        <v>1892.96366001348</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4674,22 +4674,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>333.7108202567946</v>
+        <v>651.9203821015071</v>
       </c>
       <c r="C7" t="n">
-        <v>164.7746373288877</v>
+        <v>482.9841991736002</v>
       </c>
       <c r="D7" t="n">
-        <v>164.7746373288877</v>
+        <v>332.8675597612645</v>
       </c>
       <c r="E7" t="n">
-        <v>164.7746373288877</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
@@ -4750,25 +4750,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1169.327103036485</v>
       </c>
       <c r="W7" t="n">
-        <v>782.4929502983421</v>
+        <v>879.9099329995245</v>
       </c>
       <c r="X7" t="n">
-        <v>554.5033994003247</v>
+        <v>651.9203821015071</v>
       </c>
       <c r="Y7" t="n">
-        <v>333.7108202567946</v>
+        <v>651.9203821015071</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2325.505862906802</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1956.54334596639</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1598.27764735964</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1212.489394761395</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906802</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>2325.505862906802</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>874.001300694586</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>705.0651177666791</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>554.9484783543434</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>407.0353847719502</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>260.1454372740399</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>92.44260064875883</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.67533979849</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592603</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.990851592603</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>874.001300694586</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>874.001300694586</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1681.659319589349</v>
+        <v>1535.258832689347</v>
       </c>
       <c r="C11" t="n">
-        <v>1312.696802648937</v>
+        <v>1166.296315748935</v>
       </c>
       <c r="D11" t="n">
-        <v>1312.696802648937</v>
+        <v>808.0306171421848</v>
       </c>
       <c r="E11" t="n">
-        <v>926.9085500506931</v>
+        <v>422.2423645439408</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610854</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907325</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386838</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420328</v>
+        <v>704.5155104420314</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301227</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878112</v>
+        <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765428</v>
+        <v>2485.180661765423</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687105</v>
+        <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856287</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882246</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234596</v>
+        <v>3925.553311234588</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455666</v>
+        <v>3826.588132455658</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971446</v>
+        <v>3622.786021971438</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604054</v>
+        <v>3369.295305604045</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260483</v>
+        <v>3038.232418260474</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990369</v>
+        <v>2685.46376299036</v>
       </c>
       <c r="X11" t="n">
-        <v>2458.398491629282</v>
+        <v>2311.99800472928</v>
       </c>
       <c r="Y11" t="n">
-        <v>2068.259159653471</v>
+        <v>1921.858672753468</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503049</v>
+        <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469193</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831297</v>
+        <v>477.1621322376498</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104397</v>
+        <v>900.4499396649591</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.46271775433</v>
+        <v>1337.658805224962</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.771025105397</v>
+        <v>1878.967112576029</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145094</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.9557648055689</v>
+        <v>385.5135230760931</v>
       </c>
       <c r="C13" t="n">
-        <v>375.517653134938</v>
+        <v>216.5773401481862</v>
       </c>
       <c r="D13" t="n">
-        <v>225.4010137226023</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="E13" t="n">
-        <v>225.4010137226023</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469193</v>
+        <v>78.51106622469176</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457707</v>
+        <v>368.4550473457698</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888924</v>
+        <v>717.5002252888908</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779222</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542995</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.96773471585</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082523</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551106</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014274</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370157</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920204</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.488017920204</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.803529714317</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.386359677356</v>
+        <v>834.2956531176405</v>
       </c>
       <c r="X13" t="n">
-        <v>895.3968087793387</v>
+        <v>606.3061022196232</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.6042296358086</v>
+        <v>385.5135230760931</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007884</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.40847940964</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200325</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4394675364389</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5276,28 +5276,28 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
@@ -5306,7 +5306,7 @@
         <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U14" t="n">
         <v>4100.461420469745</v>
@@ -5352,31 +5352,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331906</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>698.3321947254761</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>873.8816814720478</v>
+        <v>494.0589900220742</v>
       </c>
       <c r="C16" t="n">
-        <v>704.9454985441409</v>
+        <v>325.1228070941672</v>
       </c>
       <c r="D16" t="n">
-        <v>554.8288591318052</v>
+        <v>175.0061676818316</v>
       </c>
       <c r="E16" t="n">
-        <v>406.9157655494121</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515017</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G16" t="n">
         <v>92.81162322608056</v>
@@ -5434,13 +5434,13 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5455,31 +5455,31 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410169</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.69699212455</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439277</v>
+        <v>1668.591243136709</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.93629023339</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196429</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1276.322725445818</v>
+        <v>896.500033995844</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.530146302287</v>
+        <v>675.7074548523138</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,16 +5516,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
@@ -5601,16 +5601,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381635</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.580456911442</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.228921741681</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6017,22 +6017,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708869</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C25" t="n">
-        <v>484.81129684298</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>484.81129684298</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>484.81129684298</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>484.81129684298</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235161</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258102</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.4315576023</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396413</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359452</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614346</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011266</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6230,22 +6230,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,19 +6385,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135295</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856226</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D31" t="n">
-        <v>550.6376870732869</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297706</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630038</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6868,40 +6868,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,28 +6932,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400685</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121616</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121616</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121616</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121617</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270415</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854703</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648816</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138384</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703082</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7263,16 +7263,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400736</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>194.800778399831</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3090381835199</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851662</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572593</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D43" t="n">
-        <v>377.6556127449237</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>229.7425191625307</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>229.7425191625307</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797742</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.356899915406</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121639</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121639</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.7585491187125</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>144.9364820309937</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>50.98309054470329</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>11.92986183395286</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034033</v>
+        <v>89.71507747034042</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50.29152613728959</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537576</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>127.505224585932</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.4596884482313</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462273</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016436</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>166.0397529241847</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844822971</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>145.1398665102909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823216</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.11969353038975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>72.11969353039125</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.8770068749568</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295038</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.4141550350968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405105</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844822863</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.52345255978841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44.73700564187297</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>112.2233770574216</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856307</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194217</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>896056.2221268802</v>
+        <v>896056.2221268794</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>980164.8549632416</v>
+        <v>980164.8549632415</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>980164.8549632416</v>
+        <v>980164.8549632415</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>980164.8549632416</v>
+        <v>980164.8549632414</v>
       </c>
     </row>
     <row r="12">
@@ -26317,43 +26317,43 @@
         <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795045</v>
+        <v>405380.8397795039</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.874400917</v>
+        <v>441473.8744009171</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="H2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="J2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="K2" t="n">
-        <v>443930.6298295035</v>
-      </c>
       <c r="L2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="N2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
     </row>
     <row r="3">
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6.366537945723394e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185171</v>
+        <v>143114.1392185149</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051371</v>
+        <v>166521.347105139</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.2362355785</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.014118081206107e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.3285511537</v>
+        <v>37377.32855115307</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848892</v>
+        <v>43782.40655848964</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224528</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316955</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="E4" t="n">
-        <v>12287.79922451209</v>
+        <v>12287.79922451208</v>
       </c>
       <c r="F4" t="n">
         <v>12380.38756059278</v>
@@ -26439,10 +26439,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
+        <v>12386.92018181812</v>
+      </c>
+      <c r="K4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12386.92018181819</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26470,13 +26470,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.7221621472</v>
+        <v>86093.72216214704</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1076679.667816799</v>
+        <v>-1076679.6678168</v>
       </c>
       <c r="C6" t="n">
-        <v>252065.0779107932</v>
+        <v>252065.0779107936</v>
       </c>
       <c r="D6" t="n">
-        <v>252065.077910793</v>
+        <v>252065.0779107925</v>
       </c>
       <c r="E6" t="n">
-        <v>163885.1791743281</v>
+        <v>163675.2149304851</v>
       </c>
       <c r="F6" t="n">
-        <v>162430.0112213487</v>
+        <v>162384.1062257813</v>
       </c>
       <c r="G6" t="n">
-        <v>319253.9435881996</v>
+        <v>319219.2056627639</v>
       </c>
       <c r="H6" t="n">
-        <v>330421.1798237782</v>
+        <v>330386.4418983423</v>
       </c>
       <c r="I6" t="n">
-        <v>330421.1798237782</v>
+        <v>330386.4418983424</v>
       </c>
       <c r="J6" t="n">
-        <v>112889.9774265006</v>
+        <v>112855.2395010651</v>
       </c>
       <c r="K6" t="n">
-        <v>330421.1798237782</v>
+        <v>330386.4418983426</v>
       </c>
       <c r="L6" t="n">
-        <v>330421.1798237782</v>
+        <v>330386.4418983423</v>
       </c>
       <c r="M6" t="n">
-        <v>293043.8512726245</v>
+        <v>293009.1133471893</v>
       </c>
       <c r="N6" t="n">
-        <v>286638.7732652893</v>
+        <v>286604.0353398527</v>
       </c>
       <c r="O6" t="n">
-        <v>327397.8818465537</v>
+        <v>327363.1439211179</v>
       </c>
       <c r="P6" t="n">
-        <v>330421.1798237782</v>
+        <v>330386.4418983423</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494557</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26790,13 +26790,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808649</v>
+        <v>981.388327808647</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012587</v>
+        <v>122.3935669012569</v>
       </c>
       <c r="F3" t="n">
-        <v>145.870781221829</v>
+        <v>145.8707812218306</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625287693</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063566</v>
+        <v>149.9868724063541</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173579</v>
+        <v>178.75696251736</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,16 +27039,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063566</v>
+        <v>149.9868724063541</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173579</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063566</v>
+        <v>149.9868724063541</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173579</v>
+        <v>178.75696251736</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>290.244477142669</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>330.4099222588442</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.9698866949908</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>24.11964825229717</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>65.75137080161886</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.5869187850913</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>28.16312177371013</v>
       </c>
       <c r="F7" t="n">
-        <v>48.14115233519404</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.46496000949156</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.3173099230207</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>96.4191799035212</v>
       </c>
       <c r="H10" t="n">
-        <v>119.0838355399111</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.169834245014018e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.896147891534516e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.084969465812697e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.159893121265155e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.563873829365048e-12</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.542484732906348e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-2.832802674641671e-12</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>2.715415831887217e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>8.309682062795142e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-4.729395279960049e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-3.348081657766396e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-4.859155422623951e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30636,7 +30636,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.444267011014745e-12</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,37 +31355,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31394,7 +31394,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31443,16 +31443,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31461,19 +31461,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485652</v>
+        <v>4.873046301485646</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508994</v>
+        <v>49.90608543508988</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380258</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307182</v>
+        <v>413.5937135307177</v>
       </c>
       <c r="K11" t="n">
-        <v>619.869763472606</v>
+        <v>619.8697634726052</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216977</v>
+        <v>769.0032542216967</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857431</v>
+        <v>855.664291385742</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898392</v>
+        <v>869.5098341898381</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294413</v>
+        <v>821.0534800294402</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615141</v>
+        <v>700.7501494615132</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.234178789559</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356983</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188521</v>
+        <v>0.3898437041188516</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969424</v>
+        <v>2.607309631969421</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191523</v>
+        <v>25.1811219719152</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596483</v>
+        <v>89.76921320596472</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.333582378304</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202557</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256419</v>
+        <v>566.1178216256411</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845334</v>
+        <v>583.7591506492943</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147144</v>
+        <v>678.1177801147136</v>
       </c>
       <c r="O12" t="n">
-        <v>315.2626263027247</v>
+        <v>620.3452877431805</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205473</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071848</v>
+        <v>332.8207874071844</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697589</v>
+        <v>48.42963285697583</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780658</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236086</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737176</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691795</v>
+        <v>65.73539745691787</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836913</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619743</v>
+        <v>253.959606861974</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509178</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263711</v>
+        <v>342.6467528263707</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973096</v>
+        <v>334.4993788973092</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050061</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761894</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916781</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570616</v>
+        <v>98.28514988570603</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929614</v>
+        <v>38.09394102929609</v>
       </c>
       <c r="T13" t="n">
-        <v>9.33967255282691</v>
+        <v>9.339672552826897</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>139.4267020936821</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
@@ -32090,16 +32090,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>571.4938338238237</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365571</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,16 +32558,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,19 +33734,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040319</v>
+        <v>232.5478090040314</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276254</v>
+        <v>399.7799124276247</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517105</v>
+        <v>533.2368392517094</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584704</v>
+        <v>625.3180581584693</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932483</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077545</v>
+        <v>590.9552686077534</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062445</v>
+        <v>469.5171537062436</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151095</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156621</v>
+        <v>90.52095692156581</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116373</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458967</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457677</v>
+        <v>427.5634418457669</v>
       </c>
       <c r="M12" t="n">
-        <v>518.498761862515</v>
+        <v>441.6251167272759</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313811</v>
+        <v>546.7760680313803</v>
       </c>
       <c r="O12" t="n">
-        <v>172.6663818582803</v>
+        <v>477.7490432987361</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062171</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211632</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936559</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1825931670185</v>
+        <v>61.18259316701827</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360914</v>
+        <v>231.6901150360911</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112339</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882117</v>
+        <v>382.2306297882113</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765382</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190458</v>
+        <v>333.5494446190454</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410829</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998369</v>
+        <v>96.87566713998343</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>12.58907542701537</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
@@ -35738,16 +35738,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>428.8975893793793</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453884</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,16 +36206,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899036</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
@@ -36534,7 +36534,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998973</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066222</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
